--- a/public/plugin/xls/skkm.xlsx
+++ b/public/plugin/xls/skkm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa offline\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084EFBC7-218C-448C-8EB8-E507A732D29E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C21BDCC-EF8B-49F5-80AA-FD04BA1A458B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>KECAMATAN CIBUNGBULANG</t>
   </si>
   <si>
-    <t>DESA GIRIMULYA</t>
-  </si>
-  <si>
-    <t>Jln. Raya  H. Baimin Rt  No.2 02/01 Cibungbulang Kabupaten Bogor - 16630</t>
-  </si>
-  <si>
     <t>No :</t>
   </si>
   <si>
@@ -94,6 +88,12 @@
   </si>
   <si>
     <t xml:space="preserve">           Nama tersebut diatas adalah benar warga kami dan menurut catatan dalam Buku Induk kami nama tersebut diatas berasal dari :</t>
+  </si>
+  <si>
+    <t>DESA CIARUTEUN ILIR</t>
+  </si>
+  <si>
+    <t>Jl. Ciaruteun Ilir Rt 001 Rw 003 Desa Ciaruteun Ilir Cibungbulang Bogor</t>
   </si>
 </sst>
 </file>
@@ -202,7 +202,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -210,29 +213,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -626,79 +626,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="C3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="C4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="B7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -708,214 +708,224 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="20" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="25" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="B25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="18" t="s">
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="7:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="B7:J7"/>
     <mergeCell ref="G33:J33"/>
     <mergeCell ref="G34:J34"/>
     <mergeCell ref="B20:J20"/>
@@ -931,16 +941,6 @@
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="G32:J32"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
   </mergeCells>
   <pageMargins left="0.98031496062992141" right="0.98031496062992141" top="0.62598425196850394" bottom="0.98031496062992141" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/public/plugin/xls/skkm.xlsx
+++ b/public/plugin/xls/skkm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa offline\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C21BDCC-EF8B-49F5-80AA-FD04BA1A458B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83204B44-477F-46CB-84D5-15CB45892DAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>PEMERINTAH KABUPATEN  BOGOR</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Sekretaris Desa</t>
-  </si>
-  <si>
-    <t>OKTOBA SYAEFUL ADAM, S.Kom.</t>
   </si>
   <si>
     <t>SURAT KETERANGAN KELUARGA MISKIN</t>
@@ -202,37 +199,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -626,68 +623,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
@@ -695,10 +692,10 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -708,17 +705,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
@@ -728,11 +725,11 @@
         <v>9</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
@@ -742,11 +739,11 @@
         <v>9</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
@@ -756,11 +753,11 @@
         <v>9</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
@@ -770,11 +767,11 @@
         <v>9</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
@@ -784,11 +781,11 @@
         <v>9</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
@@ -798,134 +795,122 @@
         <v>9</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="20" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="B20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="25" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="B25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="12"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="B7:J7"/>
     <mergeCell ref="G33:J33"/>
     <mergeCell ref="G34:J34"/>
     <mergeCell ref="B20:J20"/>
@@ -941,6 +926,16 @@
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="G32:J32"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
   </mergeCells>
   <pageMargins left="0.98031496062992141" right="0.98031496062992141" top="0.62598425196850394" bottom="0.98031496062992141" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/public/plugin/xls/skkm.xlsx
+++ b/public/plugin/xls/skkm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa offline\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83204B44-477F-46CB-84D5-15CB45892DAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F0CBC2-9D67-4A88-9F79-8104DDB58630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>PEMERINTAH KABUPATEN  BOGOR</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">Girimulya, </t>
-  </si>
-  <si>
-    <t>a/n Kepala Desa Girimulya</t>
-  </si>
-  <si>
-    <t>Sekretaris Desa</t>
   </si>
   <si>
     <t>SURAT KETERANGAN KELUARGA MISKIN</t>
@@ -192,14 +186,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -207,29 +204,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:J34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -623,80 +617,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" s="4"/>
@@ -705,17 +699,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
@@ -725,11 +719,11 @@
         <v>9</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
@@ -739,11 +733,11 @@
         <v>9</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
@@ -753,11 +747,11 @@
         <v>9</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
@@ -767,11 +761,11 @@
         <v>9</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
@@ -781,11 +775,11 @@
         <v>9</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
@@ -795,122 +789,128 @@
         <v>9</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="20" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="B20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="25" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="B25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="7"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="B7:J7"/>
     <mergeCell ref="G33:J33"/>
     <mergeCell ref="G34:J34"/>
     <mergeCell ref="B20:J20"/>
@@ -926,16 +926,6 @@
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="G32:J32"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
   </mergeCells>
   <pageMargins left="0.98031496062992141" right="0.98031496062992141" top="0.62598425196850394" bottom="0.98031496062992141" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/public/plugin/xls/skkm.xlsx
+++ b/public/plugin/xls/skkm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa offline\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F0CBC2-9D67-4A88-9F79-8104DDB58630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE34231-5CD6-4502-B1BD-098C8991B619}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>PEMERINTAH KABUPATEN  BOGOR</t>
   </si>
@@ -45,9 +45,6 @@
     <t>NIK</t>
   </si>
   <si>
-    <t>Tempat, Tgl Lahir</t>
-  </si>
-  <si>
     <t>Pekerjaan</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>Jl. Ciaruteun Ilir Rt 001 Rw 003 Desa Ciaruteun Ilir Cibungbulang Bogor</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
   </si>
 </sst>
 </file>
@@ -193,37 +196,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:J33"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -610,322 +613,364 @@
     <col min="3" max="3" width="23.28515625" style="3" customWidth="1"/>
     <col min="4" max="5" width="1.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="8" width="6.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="6.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="C3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="21" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="23" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="26" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="20" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="2:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="25" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="7:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
+  <mergeCells count="26">
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F8:K8"/>
   </mergeCells>
   <pageMargins left="0.98031496062992141" right="0.98031496062992141" top="0.62598425196850394" bottom="0.98031496062992141" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
